--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -608,7 +608,7 @@
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W2" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>An assigned &lt;goal&gt; that the person has some level of commitment to.</t>
+          <t>An assigned &lt;goal&gt; that the person has some level of commitment to. Test</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
